--- a/data/Lakes/OmanukaLagoon_28ce64213c.xlsx
+++ b/data/Lakes/OmanukaLagoon_28ce64213c.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -643,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -794,7 +794,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8022,7 +8022,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8634,7 +8634,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -8862,7 +8862,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9552,7 +9552,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">

--- a/data/Lakes/OmanukaLagoon_28ce64213c.xlsx
+++ b/data/Lakes/OmanukaLagoon_28ce64213c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="321">
   <si>
     <t>site name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>4.800</t>
   </si>
   <si>
-    <t>106</t>
+    <t>106.0</t>
   </si>
   <si>
     <t>0.0045</t>
@@ -91,7 +91,7 @@
     <t>57.000</t>
   </si>
   <si>
-    <t>110</t>
+    <t>110.0</t>
   </si>
   <si>
     <t>&lt;0.0020</t>
@@ -109,7 +109,7 @@
     <t>123.000</t>
   </si>
   <si>
-    <t>560</t>
+    <t>560.0</t>
   </si>
   <si>
     <t>5.690</t>
@@ -124,7 +124,7 @@
     <t>&lt;1.900</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>1.0100</t>
@@ -142,7 +142,7 @@
     <t>&lt;2.000</t>
   </si>
   <si>
-    <t>16</t>
+    <t>16.0</t>
   </si>
   <si>
     <t>0.1890</t>
@@ -157,7 +157,7 @@
     <t>8.100</t>
   </si>
   <si>
-    <t>12</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>1.570</t>
@@ -169,7 +169,7 @@
     <t>34.000</t>
   </si>
   <si>
-    <t>48</t>
+    <t>48.0</t>
   </si>
   <si>
     <t>4.470</t>
@@ -181,7 +181,7 @@
     <t>0.1000</t>
   </si>
   <si>
-    <t>21</t>
+    <t>21.0</t>
   </si>
   <si>
     <t>1.5400</t>
@@ -196,7 +196,7 @@
     <t>5.000</t>
   </si>
   <si>
-    <t>120</t>
+    <t>120.0</t>
   </si>
   <si>
     <t>0.9870</t>
@@ -211,7 +211,7 @@
     <t>11.000</t>
   </si>
   <si>
-    <t>95</t>
+    <t>95.0</t>
   </si>
   <si>
     <t>1.660</t>
@@ -223,7 +223,7 @@
     <t>40.000</t>
   </si>
   <si>
-    <t>170</t>
+    <t>170.0</t>
   </si>
   <si>
     <t>1.770</t>
@@ -274,7 +274,7 @@
     <t>0.1600</t>
   </si>
   <si>
-    <t>30</t>
+    <t>30.0</t>
   </si>
   <si>
     <t>1.6100</t>
@@ -289,7 +289,7 @@
     <t>2.900</t>
   </si>
   <si>
-    <t>&lt;4</t>
+    <t>&lt;4.0</t>
   </si>
   <si>
     <t>0.5510</t>
@@ -313,7 +313,7 @@
     <t>16.000</t>
   </si>
   <si>
-    <t>25</t>
+    <t>25.0</t>
   </si>
   <si>
     <t>8.780</t>
@@ -352,7 +352,7 @@
     <t>0.0090</t>
   </si>
   <si>
-    <t>140</t>
+    <t>140.0</t>
   </si>
   <si>
     <t>1.600</t>
@@ -370,7 +370,7 @@
     <t>240.000</t>
   </si>
   <si>
-    <t>130</t>
+    <t>130.0</t>
   </si>
   <si>
     <t>9.080</t>
@@ -424,7 +424,7 @@
     <t>105.000</t>
   </si>
   <si>
-    <t>54</t>
+    <t>54.0</t>
   </si>
   <si>
     <t>7.990</t>
@@ -442,7 +442,7 @@
     <t>58.000</t>
   </si>
   <si>
-    <t>510</t>
+    <t>510.0</t>
   </si>
   <si>
     <t>8.020</t>
@@ -490,7 +490,7 @@
     <t>42.000</t>
   </si>
   <si>
-    <t>263</t>
+    <t>262.8</t>
   </si>
   <si>
     <t>7.850</t>
@@ -511,7 +511,7 @@
     <t>186.000</t>
   </si>
   <si>
-    <t>64</t>
+    <t>64.0</t>
   </si>
   <si>
     <t>8.420</t>
@@ -535,7 +535,7 @@
     <t>38.000</t>
   </si>
   <si>
-    <t>124</t>
+    <t>123.6</t>
   </si>
   <si>
     <t>7.510</t>
@@ -559,7 +559,7 @@
     <t>18.000</t>
   </si>
   <si>
-    <t>147</t>
+    <t>147.2</t>
   </si>
   <si>
     <t>7.360</t>
@@ -580,6 +580,9 @@
     <t>7.700</t>
   </si>
   <si>
+    <t>20.8</t>
+  </si>
+  <si>
     <t>7.440</t>
   </si>
   <si>
@@ -592,7 +595,7 @@
     <t>7.400</t>
   </si>
   <si>
-    <t>69</t>
+    <t>69.2</t>
   </si>
   <si>
     <t>6.990</t>
@@ -610,6 +613,9 @@
     <t>8.400</t>
   </si>
   <si>
+    <t>16.4</t>
+  </si>
+  <si>
     <t>7.130</t>
   </si>
   <si>
@@ -628,7 +634,7 @@
     <t>61.000</t>
   </si>
   <si>
-    <t>122</t>
+    <t>122.0</t>
   </si>
   <si>
     <t>7.530</t>
@@ -652,7 +658,7 @@
     <t>14.000</t>
   </si>
   <si>
-    <t>34</t>
+    <t>33.6</t>
   </si>
   <si>
     <t>1.400</t>
@@ -733,6 +739,9 @@
     <t>26.000</t>
   </si>
   <si>
+    <t>53.6</t>
+  </si>
+  <si>
     <t>8.060</t>
   </si>
   <si>
@@ -742,7 +751,7 @@
     <t>0.7330</t>
   </si>
   <si>
-    <t>154</t>
+    <t>153.6</t>
   </si>
   <si>
     <t>7.480</t>
@@ -760,7 +769,7 @@
     <t>0.0110</t>
   </si>
   <si>
-    <t>47</t>
+    <t>47.2</t>
   </si>
   <si>
     <t>0.5530</t>
@@ -823,7 +832,7 @@
     <t>15.000</t>
   </si>
   <si>
-    <t>108</t>
+    <t>107.6</t>
   </si>
   <si>
     <t>7.180</t>
@@ -835,7 +844,7 @@
     <t>0.1470</t>
   </si>
   <si>
-    <t>240</t>
+    <t>239.6</t>
   </si>
   <si>
     <t>7.670</t>
@@ -847,6 +856,75 @@
     <t>0.2040</t>
   </si>
   <si>
+    <t>160.32260</t>
+  </si>
+  <si>
+    <t>0.3080</t>
+  </si>
+  <si>
+    <t>322.000</t>
+  </si>
+  <si>
+    <t>1045.2</t>
+  </si>
+  <si>
+    <t>8.560</t>
+  </si>
+  <si>
+    <t>0.0480</t>
+  </si>
+  <si>
+    <t>9.160</t>
+  </si>
+  <si>
+    <t>0.1500</t>
+  </si>
+  <si>
+    <t>2.400</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>7.200</t>
+  </si>
+  <si>
+    <t>1.260</t>
+  </si>
+  <si>
+    <t>0.09700</t>
+  </si>
+  <si>
+    <t>0.2100</t>
+  </si>
+  <si>
+    <t>7.500</t>
+  </si>
+  <si>
+    <t>0.6450</t>
+  </si>
+  <si>
+    <t>2.590</t>
+  </si>
+  <si>
+    <t>21.900</t>
+  </si>
+  <si>
+    <t>1.690</t>
+  </si>
+  <si>
+    <t>0.1640</t>
+  </si>
+  <si>
+    <t>11.50170</t>
+  </si>
+  <si>
+    <t>8.200</t>
+  </si>
+  <si>
+    <t>0.2110</t>
+  </si>
+  <si>
     <t>Science - Lakes Sampling</t>
   </si>
   <si>
@@ -881,6 +959,9 @@
   </si>
   <si>
     <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+  </si>
+  <si>
+    <t>APHA Online Edition Method 4500 NH3 H.</t>
   </si>
   <si>
     <t>g/m3</t>
@@ -1257,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I344"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1326,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -1346,7 +1427,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -1366,7 +1447,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -1420,7 +1501,7 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -1440,7 +1521,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -1460,7 +1541,7 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -1480,7 +1561,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -1534,7 +1615,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -1554,7 +1635,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1574,7 +1655,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1594,7 +1675,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H17">
         <v>200</v>
@@ -1648,7 +1729,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1668,7 +1749,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H21">
         <v>200</v>
@@ -1688,7 +1769,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1708,7 +1789,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1762,7 +1843,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1782,7 +1863,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H27">
         <v>200</v>
@@ -1802,7 +1883,7 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1822,7 +1903,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1876,7 +1957,7 @@
         <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1896,7 +1977,7 @@
         <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1916,7 +1997,7 @@
         <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1936,7 +2017,7 @@
         <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -1990,7 +2071,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H38">
         <v>200</v>
@@ -2010,7 +2091,7 @@
         <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -2030,7 +2111,7 @@
         <v>51</v>
       </c>
       <c r="G40" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -2050,7 +2131,7 @@
         <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H41">
         <v>200</v>
@@ -2104,7 +2185,7 @@
         <v>54</v>
       </c>
       <c r="G44" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -2124,7 +2205,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H45">
         <v>200</v>
@@ -2144,7 +2225,7 @@
         <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2164,7 +2245,7 @@
         <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2218,7 +2299,7 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2238,7 +2319,7 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2258,7 +2339,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2278,7 +2359,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2332,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H56">
         <v>200</v>
@@ -2352,7 +2433,7 @@
         <v>64</v>
       </c>
       <c r="G57" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2372,7 +2453,7 @@
         <v>65</v>
       </c>
       <c r="G58" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2392,7 +2473,7 @@
         <v>26</v>
       </c>
       <c r="G59" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H59">
         <v>200</v>
@@ -2446,7 +2527,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H62">
         <v>200</v>
@@ -2466,7 +2547,7 @@
         <v>68</v>
       </c>
       <c r="G63" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2486,7 +2567,7 @@
         <v>69</v>
       </c>
       <c r="G64" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2506,7 +2587,7 @@
         <v>26</v>
       </c>
       <c r="G65" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H65">
         <v>200</v>
@@ -2560,13 +2641,13 @@
         <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F68" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G68" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2586,13 +2667,13 @@
         <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F69" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G69" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2612,13 +2693,13 @@
         <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F70" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G70" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2638,10 +2719,10 @@
         <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F71" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2661,10 +2742,10 @@
         <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2684,13 +2765,13 @@
         <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F73" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G73" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2710,13 +2791,13 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F74" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G74" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2736,13 +2817,13 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F75" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G75" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2762,10 +2843,10 @@
         <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F76" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2785,10 +2866,10 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F77" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2808,13 +2889,13 @@
         <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F78" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G78" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2834,13 +2915,13 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F79" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G79" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -2860,13 +2941,13 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F80" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G80" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -2886,10 +2967,10 @@
         <v>32</v>
       </c>
       <c r="E81" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F81" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -2909,10 +2990,10 @@
         <v>84</v>
       </c>
       <c r="E82" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F82" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -2932,13 +3013,13 @@
         <v>85</v>
       </c>
       <c r="E83" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F83" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G83" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -2958,13 +3039,13 @@
         <v>35</v>
       </c>
       <c r="E84" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F84" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G84" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -2984,13 +3065,13 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F85" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G85" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -3010,13 +3091,13 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F86" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G86" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3036,10 +3117,10 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F87" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3059,10 +3140,10 @@
         <v>67</v>
       </c>
       <c r="E88" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F88" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3082,13 +3163,13 @@
         <v>89</v>
       </c>
       <c r="E89" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F89" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G89" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3108,13 +3189,13 @@
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F90" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G90" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3134,13 +3215,13 @@
         <v>91</v>
       </c>
       <c r="E91" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F91" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G91" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3160,13 +3241,13 @@
         <v>92</v>
       </c>
       <c r="E92" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F92" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G92" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3186,10 +3267,10 @@
         <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F93" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3209,10 +3290,10 @@
         <v>94</v>
       </c>
       <c r="E94" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F94" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3232,13 +3313,13 @@
         <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F95" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G95" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3258,13 +3339,13 @@
         <v>64</v>
       </c>
       <c r="E96" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F96" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G96" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3284,13 +3365,13 @@
         <v>47</v>
       </c>
       <c r="E97" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F97" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G97" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3310,13 +3391,13 @@
         <v>26</v>
       </c>
       <c r="E98" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G98" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3336,10 +3417,10 @@
         <v>96</v>
       </c>
       <c r="E99" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F99" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3359,10 +3440,10 @@
         <v>63</v>
       </c>
       <c r="E100" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F100" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3382,7 +3463,7 @@
         <v>97</v>
       </c>
       <c r="G101" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3402,13 +3483,13 @@
         <v>89</v>
       </c>
       <c r="E102" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F102" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G102" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3431,13 +3512,13 @@
         <v>98</v>
       </c>
       <c r="E103" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F103" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G103" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3460,13 +3541,13 @@
         <v>99</v>
       </c>
       <c r="E104" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F104" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G104" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3489,7 +3570,7 @@
         <v>100</v>
       </c>
       <c r="E105" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G105" t="s">
         <v>8</v>
@@ -3515,13 +3596,13 @@
         <v>101</v>
       </c>
       <c r="E106" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F106" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G106" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3544,10 +3625,10 @@
         <v>102</v>
       </c>
       <c r="E107" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F107" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3570,10 +3651,10 @@
         <v>103</v>
       </c>
       <c r="E108" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F108" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3596,7 +3677,7 @@
         <v>104</v>
       </c>
       <c r="G109" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3616,13 +3697,13 @@
         <v>105</v>
       </c>
       <c r="E110" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F110" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G110" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3645,13 +3726,13 @@
         <v>106</v>
       </c>
       <c r="E111" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F111" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G111" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3674,13 +3755,13 @@
         <v>86</v>
       </c>
       <c r="E112" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F112" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G112" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3703,7 +3784,7 @@
         <v>107</v>
       </c>
       <c r="E113" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G113" t="s">
         <v>8</v>
@@ -3729,13 +3810,13 @@
         <v>108</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F114" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G114" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3758,10 +3839,10 @@
         <v>109</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F115" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3784,10 +3865,10 @@
         <v>110</v>
       </c>
       <c r="E116" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F116" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -3810,13 +3891,13 @@
         <v>111</v>
       </c>
       <c r="E117" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F117" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G117" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3836,13 +3917,13 @@
         <v>64</v>
       </c>
       <c r="E118" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F118" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G118" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -3862,13 +3943,13 @@
         <v>112</v>
       </c>
       <c r="E119" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F119" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G119" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -3888,13 +3969,13 @@
         <v>26</v>
       </c>
       <c r="E120" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F120" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G120" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -3914,10 +3995,10 @@
         <v>113</v>
       </c>
       <c r="E121" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F121" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -3937,10 +4018,10 @@
         <v>114</v>
       </c>
       <c r="E122" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F122" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -3960,7 +4041,7 @@
         <v>115</v>
       </c>
       <c r="G123" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -3980,13 +4061,13 @@
         <v>116</v>
       </c>
       <c r="E124" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F124" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G124" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -4009,13 +4090,13 @@
         <v>117</v>
       </c>
       <c r="E125" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F125" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G125" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4038,13 +4119,13 @@
         <v>118</v>
       </c>
       <c r="E126" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F126" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G126" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4067,7 +4148,7 @@
         <v>119</v>
       </c>
       <c r="E127" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4093,13 +4174,13 @@
         <v>26</v>
       </c>
       <c r="E128" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F128" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G128" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4122,10 +4203,10 @@
         <v>120</v>
       </c>
       <c r="E129" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F129" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4148,10 +4229,10 @@
         <v>121</v>
       </c>
       <c r="E130" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F130" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4174,7 +4255,7 @@
         <v>122</v>
       </c>
       <c r="G131" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4194,13 +4275,13 @@
         <v>123</v>
       </c>
       <c r="E132" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F132" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G132" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4223,13 +4304,13 @@
         <v>35</v>
       </c>
       <c r="E133" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F133" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G133" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4252,13 +4333,13 @@
         <v>91</v>
       </c>
       <c r="E134" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F134" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G134" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4281,7 +4362,7 @@
         <v>124</v>
       </c>
       <c r="E135" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4307,13 +4388,13 @@
         <v>125</v>
       </c>
       <c r="E136" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F136" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G136" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4336,10 +4417,10 @@
         <v>126</v>
       </c>
       <c r="E137" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F137" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4362,10 +4443,10 @@
         <v>127</v>
       </c>
       <c r="E138" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F138" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4388,13 +4469,13 @@
         <v>128</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F139" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G139" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4417,13 +4498,13 @@
         <v>129</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F140" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G140" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4446,13 +4527,13 @@
         <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F141" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G141" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4475,7 +4556,7 @@
         <v>130</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G142" t="s">
         <v>8</v>
@@ -4501,13 +4582,13 @@
         <v>131</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G143" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4530,10 +4611,10 @@
         <v>132</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F144" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4556,10 +4637,10 @@
         <v>133</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4582,7 +4663,7 @@
         <v>134</v>
       </c>
       <c r="G146" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4602,13 +4683,13 @@
         <v>83</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G147" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4631,13 +4712,13 @@
         <v>135</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F148" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G148" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4660,13 +4741,13 @@
         <v>136</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F149" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G149" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4689,7 +4770,7 @@
         <v>137</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G150" t="s">
         <v>8</v>
@@ -4715,13 +4796,13 @@
         <v>26</v>
       </c>
       <c r="E151" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F151" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G151" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4744,10 +4825,10 @@
         <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F152" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4770,10 +4851,10 @@
         <v>139</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F153" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -4796,13 +4877,13 @@
         <v>140</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G154" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -4825,13 +4906,13 @@
         <v>141</v>
       </c>
       <c r="E155" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G155" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -4854,13 +4935,13 @@
         <v>142</v>
       </c>
       <c r="E156" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G156" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -4883,7 +4964,7 @@
         <v>143</v>
       </c>
       <c r="E157" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G157" t="s">
         <v>8</v>
@@ -4909,13 +4990,13 @@
         <v>26</v>
       </c>
       <c r="E158" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G158" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -4938,10 +5019,10 @@
         <v>79</v>
       </c>
       <c r="E159" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -4964,10 +5045,10 @@
         <v>144</v>
       </c>
       <c r="E160" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -4990,7 +5071,7 @@
         <v>145</v>
       </c>
       <c r="G161" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -5010,13 +5091,13 @@
         <v>146</v>
       </c>
       <c r="E162" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F162" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G162" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -5039,13 +5120,13 @@
         <v>147</v>
       </c>
       <c r="E163" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G163" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5068,13 +5149,13 @@
         <v>55</v>
       </c>
       <c r="E164" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F164" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G164" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5097,7 +5178,7 @@
         <v>148</v>
       </c>
       <c r="E165" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G165" t="s">
         <v>8</v>
@@ -5123,13 +5204,13 @@
         <v>149</v>
       </c>
       <c r="E166" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F166" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G166" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5152,10 +5233,10 @@
         <v>150</v>
       </c>
       <c r="E167" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F167" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5178,10 +5259,10 @@
         <v>49</v>
       </c>
       <c r="E168" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F168" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5204,7 +5285,7 @@
         <v>151</v>
       </c>
       <c r="G169" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5224,13 +5305,13 @@
         <v>152</v>
       </c>
       <c r="E170" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F170" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G170" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5253,13 +5334,13 @@
         <v>153</v>
       </c>
       <c r="E171" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F171" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G171" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5282,13 +5363,13 @@
         <v>42</v>
       </c>
       <c r="E172" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F172" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G172" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5311,7 +5392,7 @@
         <v>154</v>
       </c>
       <c r="E173" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G173" t="s">
         <v>8</v>
@@ -5337,13 +5418,13 @@
         <v>26</v>
       </c>
       <c r="E174" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F174" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G174" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5366,10 +5447,10 @@
         <v>155</v>
       </c>
       <c r="E175" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F175" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5392,10 +5473,10 @@
         <v>156</v>
       </c>
       <c r="E176" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F176" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5418,7 +5499,7 @@
         <v>104</v>
       </c>
       <c r="G177" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5438,13 +5519,13 @@
         <v>78</v>
       </c>
       <c r="E178" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F178" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G178" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5467,13 +5548,13 @@
         <v>157</v>
       </c>
       <c r="E179" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F179" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G179" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5496,13 +5577,13 @@
         <v>158</v>
       </c>
       <c r="E180" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F180" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G180" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5525,7 +5606,7 @@
         <v>159</v>
       </c>
       <c r="E181" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G181" t="s">
         <v>8</v>
@@ -5551,13 +5632,13 @@
         <v>26</v>
       </c>
       <c r="E182" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F182" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G182" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5580,10 +5661,10 @@
         <v>160</v>
       </c>
       <c r="E183" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F183" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5606,10 +5687,10 @@
         <v>161</v>
       </c>
       <c r="E184" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F184" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5632,7 +5713,7 @@
         <v>162</v>
       </c>
       <c r="G185" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5652,13 +5733,13 @@
         <v>163</v>
       </c>
       <c r="E186" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F186" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G186" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5681,13 +5762,13 @@
         <v>164</v>
       </c>
       <c r="E187" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F187" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G187" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5710,13 +5791,13 @@
         <v>165</v>
       </c>
       <c r="E188" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F188" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G188" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5739,7 +5820,7 @@
         <v>166</v>
       </c>
       <c r="E189" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G189" t="s">
         <v>8</v>
@@ -5765,13 +5846,13 @@
         <v>167</v>
       </c>
       <c r="E190" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F190" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G190" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5794,10 +5875,10 @@
         <v>168</v>
       </c>
       <c r="E191" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F191" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -5820,10 +5901,10 @@
         <v>169</v>
       </c>
       <c r="E192" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F192" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -5846,7 +5927,7 @@
         <v>170</v>
       </c>
       <c r="G193" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -5866,13 +5947,13 @@
         <v>171</v>
       </c>
       <c r="E194" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F194" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G194" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -5895,13 +5976,13 @@
         <v>172</v>
       </c>
       <c r="E195" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F195" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G195" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H195">
         <v>600</v>
@@ -5924,13 +6005,13 @@
         <v>173</v>
       </c>
       <c r="E196" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F196" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G196" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -5953,7 +6034,7 @@
         <v>174</v>
       </c>
       <c r="E197" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G197" t="s">
         <v>8</v>
@@ -5979,13 +6060,13 @@
         <v>175</v>
       </c>
       <c r="E198" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F198" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G198" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -6008,10 +6089,10 @@
         <v>176</v>
       </c>
       <c r="E199" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F199" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -6034,10 +6115,10 @@
         <v>177</v>
       </c>
       <c r="E200" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F200" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -6060,7 +6141,7 @@
         <v>178</v>
       </c>
       <c r="G201" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6080,13 +6161,13 @@
         <v>179</v>
       </c>
       <c r="E202" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F202" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G202" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6109,13 +6190,13 @@
         <v>180</v>
       </c>
       <c r="E203" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F203" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G203" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6138,13 +6219,13 @@
         <v>181</v>
       </c>
       <c r="E204" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F204" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G204" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6167,7 +6248,7 @@
         <v>182</v>
       </c>
       <c r="E205" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G205" t="s">
         <v>8</v>
@@ -6193,13 +6274,13 @@
         <v>17</v>
       </c>
       <c r="E206" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F206" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G206" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6222,10 +6303,10 @@
         <v>183</v>
       </c>
       <c r="E207" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F207" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6248,10 +6329,10 @@
         <v>184</v>
       </c>
       <c r="E208" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F208" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H208">
         <v>600</v>
@@ -6274,7 +6355,7 @@
         <v>185</v>
       </c>
       <c r="G209" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6294,13 +6375,13 @@
         <v>186</v>
       </c>
       <c r="E210" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F210" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G210" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6323,13 +6404,13 @@
         <v>187</v>
       </c>
       <c r="E211" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F211" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G211" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6349,16 +6430,16 @@
         <v>44656.45208333333</v>
       </c>
       <c r="D212" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="E212" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F212" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G212" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H212">
         <v>600</v>
@@ -6378,10 +6459,10 @@
         <v>44656.45208333333</v>
       </c>
       <c r="D213" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E213" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G213" t="s">
         <v>8</v>
@@ -6407,13 +6488,13 @@
         <v>26</v>
       </c>
       <c r="E214" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F214" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G214" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6436,10 +6517,10 @@
         <v>96</v>
       </c>
       <c r="E215" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F215" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6459,13 +6540,13 @@
         <v>44656.45208333333</v>
       </c>
       <c r="D216" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E216" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F216" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6488,7 +6569,7 @@
         <v>104</v>
       </c>
       <c r="G217" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6505,16 +6586,16 @@
         <v>44767.43680555555</v>
       </c>
       <c r="D218" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E218" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F218" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G218" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H218">
         <v>600</v>
@@ -6534,16 +6615,16 @@
         <v>44767.43680555555</v>
       </c>
       <c r="D219" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E219" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F219" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G219" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6563,16 +6644,16 @@
         <v>44767.43680555555</v>
       </c>
       <c r="D220" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E220" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F220" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G220" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -6592,10 +6673,10 @@
         <v>44767.43680555555</v>
       </c>
       <c r="D221" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E221" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G221" t="s">
         <v>8</v>
@@ -6618,16 +6699,16 @@
         <v>44767.43680555555</v>
       </c>
       <c r="D222" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E222" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F222" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G222" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6647,13 +6728,13 @@
         <v>44767.43680555555</v>
       </c>
       <c r="D223" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E223" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F223" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6676,10 +6757,10 @@
         <v>76</v>
       </c>
       <c r="E224" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F224" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -6702,7 +6783,7 @@
         <v>122</v>
       </c>
       <c r="G225" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H225">
         <v>600</v>
@@ -6719,16 +6800,16 @@
         <v>44774.51805555556</v>
       </c>
       <c r="D226" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E226" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F226" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G226" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H226">
         <v>600</v>
@@ -6748,16 +6829,16 @@
         <v>44774.51805555556</v>
       </c>
       <c r="D227" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E227" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F227" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G227" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H227">
         <v>600</v>
@@ -6777,16 +6858,16 @@
         <v>44774.51805555556</v>
       </c>
       <c r="D228" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="E228" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F228" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G228" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H228">
         <v>600</v>
@@ -6806,10 +6887,10 @@
         <v>44774.51805555556</v>
       </c>
       <c r="D229" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E229" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G229" t="s">
         <v>8</v>
@@ -6832,16 +6913,16 @@
         <v>44774.51805555556</v>
       </c>
       <c r="D230" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E230" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F230" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G230" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -6861,13 +6942,13 @@
         <v>44774.51805555556</v>
       </c>
       <c r="D231" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E231" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F231" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -6890,10 +6971,10 @@
         <v>175</v>
       </c>
       <c r="E232" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F232" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -6913,10 +6994,10 @@
         <v>44811.00048611111</v>
       </c>
       <c r="D233" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G233" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H233">
         <v>600</v>
@@ -6933,16 +7014,16 @@
         <v>44811.43125</v>
       </c>
       <c r="D234" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E234" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F234" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G234" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H234">
         <v>600</v>
@@ -6962,16 +7043,16 @@
         <v>44811.43125</v>
       </c>
       <c r="D235" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E235" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F235" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G235" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H235">
         <v>600</v>
@@ -6991,16 +7072,16 @@
         <v>44811.43125</v>
       </c>
       <c r="D236" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E236" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F236" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G236" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H236">
         <v>600</v>
@@ -7020,10 +7101,10 @@
         <v>44811.43125</v>
       </c>
       <c r="D237" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E237" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G237" t="s">
         <v>8</v>
@@ -7046,16 +7127,16 @@
         <v>44811.43125</v>
       </c>
       <c r="D238" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E238" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F238" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G238" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -7075,13 +7156,13 @@
         <v>44811.43125</v>
       </c>
       <c r="D239" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E239" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F239" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7101,13 +7182,13 @@
         <v>44811.43125</v>
       </c>
       <c r="D240" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E240" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F240" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7127,10 +7208,10 @@
         <v>44860.00048611111</v>
       </c>
       <c r="D241" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G241" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H241">
         <v>600</v>
@@ -7147,16 +7228,16 @@
         <v>44860.38611111111</v>
       </c>
       <c r="D242" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E242" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F242" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G242" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H242">
         <v>600</v>
@@ -7176,16 +7257,16 @@
         <v>44860.38611111111</v>
       </c>
       <c r="D243" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E243" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F243" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G243" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H243">
         <v>600</v>
@@ -7205,16 +7286,16 @@
         <v>44860.38611111111</v>
       </c>
       <c r="D244" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E244" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F244" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G244" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H244">
         <v>600</v>
@@ -7234,10 +7315,10 @@
         <v>44860.38611111111</v>
       </c>
       <c r="D245" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E245" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G245" t="s">
         <v>8</v>
@@ -7263,13 +7344,13 @@
         <v>17</v>
       </c>
       <c r="E246" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F246" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G246" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7289,13 +7370,13 @@
         <v>44860.38611111111</v>
       </c>
       <c r="D247" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E247" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F247" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7315,13 +7396,13 @@
         <v>44860.38611111111</v>
       </c>
       <c r="D248" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E248" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F248" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7341,10 +7422,10 @@
         <v>44886.00048611111</v>
       </c>
       <c r="D249" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G249" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H249">
         <v>600</v>
@@ -7361,16 +7442,16 @@
         <v>44886.39652777778</v>
       </c>
       <c r="D250" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E250" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F250" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G250" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H250">
         <v>600</v>
@@ -7390,16 +7471,16 @@
         <v>44886.39652777778</v>
       </c>
       <c r="D251" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E251" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F251" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G251" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H251">
         <v>600</v>
@@ -7422,13 +7503,13 @@
         <v>36</v>
       </c>
       <c r="E252" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F252" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G252" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H252">
         <v>600</v>
@@ -7448,10 +7529,10 @@
         <v>44886.39652777778</v>
       </c>
       <c r="D253" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E253" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G253" t="s">
         <v>8</v>
@@ -7474,16 +7555,16 @@
         <v>44886.39652777778</v>
       </c>
       <c r="D254" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E254" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F254" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G254" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7503,13 +7584,13 @@
         <v>44886.39652777778</v>
       </c>
       <c r="D255" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E255" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F255" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7529,13 +7610,13 @@
         <v>44886.39652777778</v>
       </c>
       <c r="D256" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E256" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F256" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H256">
         <v>600</v>
@@ -7555,10 +7636,10 @@
         <v>44914.00048611111</v>
       </c>
       <c r="D257" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G257" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H257">
         <v>600</v>
@@ -7575,16 +7656,16 @@
         <v>44914.38888888889</v>
       </c>
       <c r="D258" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E258" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F258" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G258" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H258">
         <v>600</v>
@@ -7604,16 +7685,16 @@
         <v>44914.38888888889</v>
       </c>
       <c r="D259" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E259" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F259" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G259" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H259">
         <v>600</v>
@@ -7636,13 +7717,13 @@
         <v>36</v>
       </c>
       <c r="E260" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F260" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G260" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H260">
         <v>600</v>
@@ -7662,10 +7743,10 @@
         <v>44914.38888888889</v>
       </c>
       <c r="D261" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E261" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G261" t="s">
         <v>8</v>
@@ -7688,16 +7769,16 @@
         <v>44914.38888888889</v>
       </c>
       <c r="D262" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E262" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F262" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G262" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -7717,13 +7798,13 @@
         <v>44914.38888888889</v>
       </c>
       <c r="D263" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E263" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F263" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -7743,13 +7824,13 @@
         <v>44914.38888888889</v>
       </c>
       <c r="D264" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E264" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F264" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -7769,10 +7850,10 @@
         <v>44952.00048611111</v>
       </c>
       <c r="D265" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G265" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H265">
         <v>600</v>
@@ -7789,16 +7870,16 @@
         <v>44952.37430555555</v>
       </c>
       <c r="D266" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E266" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F266" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G266" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H266">
         <v>600</v>
@@ -7818,16 +7899,16 @@
         <v>44952.37430555555</v>
       </c>
       <c r="D267" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E267" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F267" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G267" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H267">
         <v>600</v>
@@ -7847,16 +7928,16 @@
         <v>44952.37430555555</v>
       </c>
       <c r="D268" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="E268" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F268" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G268" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H268">
         <v>600</v>
@@ -7876,10 +7957,10 @@
         <v>44952.37430555555</v>
       </c>
       <c r="D269" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E269" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G269" t="s">
         <v>8</v>
@@ -7902,16 +7983,16 @@
         <v>44952.37430555555</v>
       </c>
       <c r="D270" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E270" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F270" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G270" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H270">
         <v>600</v>
@@ -7931,13 +8012,13 @@
         <v>44952.37430555555</v>
       </c>
       <c r="D271" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E271" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F271" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -7957,13 +8038,13 @@
         <v>44952.37430555555</v>
       </c>
       <c r="D272" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E272" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F272" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H272">
         <v>600</v>
@@ -7983,10 +8064,10 @@
         <v>44978.00048611111</v>
       </c>
       <c r="D273" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G273" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H273">
         <v>600</v>
@@ -8003,16 +8084,16 @@
         <v>44978.425</v>
       </c>
       <c r="D274" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E274" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F274" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G274" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H274">
         <v>600</v>
@@ -8032,16 +8113,16 @@
         <v>44978.425</v>
       </c>
       <c r="D275" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E275" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F275" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G275" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H275">
         <v>600</v>
@@ -8061,16 +8142,16 @@
         <v>44978.425</v>
       </c>
       <c r="D276" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="E276" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F276" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G276" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H276">
         <v>600</v>
@@ -8090,10 +8171,10 @@
         <v>44978.425</v>
       </c>
       <c r="D277" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E277" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G277" t="s">
         <v>8</v>
@@ -8119,13 +8200,13 @@
         <v>17</v>
       </c>
       <c r="E278" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F278" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G278" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8145,13 +8226,13 @@
         <v>44978.425</v>
       </c>
       <c r="D279" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E279" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F279" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8171,13 +8252,13 @@
         <v>44978.425</v>
       </c>
       <c r="D280" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E280" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F280" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H280">
         <v>600</v>
@@ -8200,7 +8281,7 @@
         <v>151</v>
       </c>
       <c r="G281" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H281">
         <v>600</v>
@@ -8220,13 +8301,13 @@
         <v>111</v>
       </c>
       <c r="E282" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F282" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G282" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H282">
         <v>600</v>
@@ -8246,16 +8327,16 @@
         <v>45008.44722222222</v>
       </c>
       <c r="D283" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E283" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F283" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G283" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H283">
         <v>600</v>
@@ -8275,16 +8356,16 @@
         <v>45008.44722222222</v>
       </c>
       <c r="D284" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E284" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F284" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G284" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H284">
         <v>600</v>
@@ -8304,10 +8385,10 @@
         <v>45008.44722222222</v>
       </c>
       <c r="D285" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E285" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G285" t="s">
         <v>8</v>
@@ -8333,13 +8414,13 @@
         <v>17</v>
       </c>
       <c r="E286" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F286" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G286" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8359,13 +8440,13 @@
         <v>45008.44722222222</v>
       </c>
       <c r="D287" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E287" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F287" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8385,13 +8466,13 @@
         <v>45008.44722222222</v>
       </c>
       <c r="D288" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E288" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F288" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8411,10 +8492,10 @@
         <v>45027.00048611111</v>
       </c>
       <c r="D289" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G289" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H289">
         <v>600</v>
@@ -8431,16 +8512,16 @@
         <v>45027.42430555556</v>
       </c>
       <c r="D290" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E290" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F290" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G290" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H290">
         <v>600</v>
@@ -8463,13 +8544,13 @@
         <v>68</v>
       </c>
       <c r="E291" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F291" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G291" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H291">
         <v>600</v>
@@ -8489,16 +8570,16 @@
         <v>45027.42430555556</v>
       </c>
       <c r="D292" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E292" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F292" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G292" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H292">
         <v>600</v>
@@ -8521,7 +8602,7 @@
         <v>46</v>
       </c>
       <c r="E293" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G293" t="s">
         <v>8</v>
@@ -8544,16 +8625,16 @@
         <v>45027.42430555556</v>
       </c>
       <c r="D294" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E294" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F294" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G294" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8576,10 +8657,10 @@
         <v>79</v>
       </c>
       <c r="E295" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F295" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8599,13 +8680,13 @@
         <v>45027.42430555556</v>
       </c>
       <c r="D296" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E296" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F296" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -8628,7 +8709,7 @@
         <v>104</v>
       </c>
       <c r="G297" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H297">
         <v>600</v>
@@ -8645,16 +8726,16 @@
         <v>45127.49513888889</v>
       </c>
       <c r="D298" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E298" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F298" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G298" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H298">
         <v>600</v>
@@ -8674,16 +8755,16 @@
         <v>45127.49513888889</v>
       </c>
       <c r="D299" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E299" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F299" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G299" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H299">
         <v>600</v>
@@ -8706,13 +8787,13 @@
         <v>91</v>
       </c>
       <c r="E300" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F300" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G300" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H300">
         <v>600</v>
@@ -8735,7 +8816,7 @@
         <v>107</v>
       </c>
       <c r="E301" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G301" t="s">
         <v>8</v>
@@ -8758,16 +8839,16 @@
         <v>45127.49513888889</v>
       </c>
       <c r="D302" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E302" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F302" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G302" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H302">
         <v>600</v>
@@ -8787,13 +8868,13 @@
         <v>45127.49513888889</v>
       </c>
       <c r="D303" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E303" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F303" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -8813,13 +8894,13 @@
         <v>45127.49513888889</v>
       </c>
       <c r="D304" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E304" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F304" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -8842,7 +8923,7 @@
         <v>122</v>
       </c>
       <c r="G305" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H305">
         <v>600</v>
@@ -8859,16 +8940,16 @@
         <v>45155.43680555555</v>
       </c>
       <c r="D306" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E306" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F306" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G306" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H306">
         <v>600</v>
@@ -8888,16 +8969,16 @@
         <v>45155.43680555555</v>
       </c>
       <c r="D307" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E307" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F307" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G307" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H307">
         <v>600</v>
@@ -8920,13 +9001,13 @@
         <v>91</v>
       </c>
       <c r="E308" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F308" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G308" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H308">
         <v>600</v>
@@ -8946,10 +9027,10 @@
         <v>45155.43680555555</v>
       </c>
       <c r="D309" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E309" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G309" t="s">
         <v>8</v>
@@ -8972,16 +9053,16 @@
         <v>45155.43680555555</v>
       </c>
       <c r="D310" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E310" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F310" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G310" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H310">
         <v>600</v>
@@ -9001,13 +9082,13 @@
         <v>45155.43680555555</v>
       </c>
       <c r="D311" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E311" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F311" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H311">
         <v>600</v>
@@ -9027,13 +9108,13 @@
         <v>45155.43680555555</v>
       </c>
       <c r="D312" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E312" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F312" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H312">
         <v>600</v>
@@ -9056,7 +9137,7 @@
         <v>122</v>
       </c>
       <c r="G313" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H313">
         <v>600</v>
@@ -9073,16 +9154,16 @@
         <v>45197.33263888889</v>
       </c>
       <c r="D314" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E314" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F314" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G314" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H314">
         <v>600</v>
@@ -9105,13 +9186,13 @@
         <v>35</v>
       </c>
       <c r="E315" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F315" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G315" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H315">
         <v>600</v>
@@ -9134,13 +9215,13 @@
         <v>91</v>
       </c>
       <c r="E316" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F316" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G316" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H316">
         <v>600</v>
@@ -9160,10 +9241,10 @@
         <v>45197.33263888889</v>
       </c>
       <c r="D317" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E317" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G317" t="s">
         <v>8</v>
@@ -9186,16 +9267,16 @@
         <v>45197.33263888889</v>
       </c>
       <c r="D318" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E318" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F318" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G318" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H318">
         <v>600</v>
@@ -9215,13 +9296,13 @@
         <v>45197.33263888889</v>
       </c>
       <c r="D319" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E319" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F319" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H319">
         <v>600</v>
@@ -9241,13 +9322,13 @@
         <v>45197.33263888889</v>
       </c>
       <c r="D320" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E320" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F320" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H320">
         <v>600</v>
@@ -9270,7 +9351,7 @@
         <v>122</v>
       </c>
       <c r="G321" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H321">
         <v>600</v>
@@ -9287,16 +9368,16 @@
         <v>45210.47013888889</v>
       </c>
       <c r="D322" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E322" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F322" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G322" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H322">
         <v>600</v>
@@ -9316,16 +9397,16 @@
         <v>45210.47013888889</v>
       </c>
       <c r="D323" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E323" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F323" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G323" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H323">
         <v>600</v>
@@ -9348,13 +9429,13 @@
         <v>91</v>
       </c>
       <c r="E324" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F324" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G324" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H324">
         <v>600</v>
@@ -9374,10 +9455,10 @@
         <v>45210.47013888889</v>
       </c>
       <c r="D325" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E325" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G325" t="s">
         <v>8</v>
@@ -9400,16 +9481,16 @@
         <v>45210.47013888889</v>
       </c>
       <c r="D326" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E326" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F326" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G326" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H326">
         <v>600</v>
@@ -9429,13 +9510,13 @@
         <v>45210.47013888889</v>
       </c>
       <c r="D327" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E327" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F327" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H327">
         <v>600</v>
@@ -9455,13 +9536,13 @@
         <v>45210.47013888889</v>
       </c>
       <c r="D328" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E328" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F328" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H328">
         <v>600</v>
@@ -9484,7 +9565,7 @@
         <v>151</v>
       </c>
       <c r="G329" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H329">
         <v>600</v>
@@ -9501,16 +9582,16 @@
         <v>45253.3875</v>
       </c>
       <c r="D330" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E330" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F330" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G330" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H330">
         <v>600</v>
@@ -9530,16 +9611,16 @@
         <v>45253.3875</v>
       </c>
       <c r="D331" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E331" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F331" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G331" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H331">
         <v>600</v>
@@ -9559,16 +9640,16 @@
         <v>45253.3875</v>
       </c>
       <c r="D332" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E332" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F332" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G332" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H332">
         <v>600</v>
@@ -9588,10 +9669,10 @@
         <v>45253.3875</v>
       </c>
       <c r="D333" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E333" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G333" t="s">
         <v>8</v>
@@ -9614,16 +9695,16 @@
         <v>45253.3875</v>
       </c>
       <c r="D334" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E334" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F334" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G334" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H334">
         <v>600</v>
@@ -9643,13 +9724,13 @@
         <v>45253.3875</v>
       </c>
       <c r="D335" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E335" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F335" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H335">
         <v>600</v>
@@ -9669,13 +9750,13 @@
         <v>45253.3875</v>
       </c>
       <c r="D336" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E336" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F336" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H336">
         <v>600</v>
@@ -9698,7 +9779,7 @@
         <v>185</v>
       </c>
       <c r="G337" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H337">
         <v>600</v>
@@ -9718,13 +9799,13 @@
         <v>83</v>
       </c>
       <c r="E338" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F338" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G338" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H338">
         <v>600</v>
@@ -9744,16 +9825,16 @@
         <v>45280.44097222222</v>
       </c>
       <c r="D339" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E339" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F339" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G339" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H339">
         <v>600</v>
@@ -9773,16 +9854,16 @@
         <v>45280.44097222222</v>
       </c>
       <c r="D340" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E340" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F340" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G340" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H340">
         <v>600</v>
@@ -9802,10 +9883,10 @@
         <v>45280.44097222222</v>
       </c>
       <c r="D341" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E341" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G341" t="s">
         <v>8</v>
@@ -9831,13 +9912,13 @@
         <v>149</v>
       </c>
       <c r="E342" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F342" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G342" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H342">
         <v>600</v>
@@ -9857,13 +9938,13 @@
         <v>45280.44097222222</v>
       </c>
       <c r="D343" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E343" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F343" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H343">
         <v>600</v>
@@ -9883,19 +9964,1089 @@
         <v>45280.44097222222</v>
       </c>
       <c r="D344" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E344" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F344" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H344">
         <v>600</v>
       </c>
       <c r="I344">
         <v>7.67</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>16</v>
+      </c>
+      <c r="C345" s="2">
+        <v>45308.00048611111</v>
+      </c>
+      <c r="D345" t="s">
+        <v>280</v>
+      </c>
+      <c r="G345" t="s">
+        <v>320</v>
+      </c>
+      <c r="H345">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" s="2">
+        <v>45308.41597222222</v>
+      </c>
+      <c r="D346" t="s">
+        <v>281</v>
+      </c>
+      <c r="E346" t="s">
+        <v>303</v>
+      </c>
+      <c r="F346" t="s">
+        <v>313</v>
+      </c>
+      <c r="G346" t="s">
+        <v>316</v>
+      </c>
+      <c r="H346">
+        <v>600</v>
+      </c>
+      <c r="I346">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347" s="2">
+        <v>45308.41597222222</v>
+      </c>
+      <c r="D347" t="s">
+        <v>282</v>
+      </c>
+      <c r="E347" t="s">
+        <v>303</v>
+      </c>
+      <c r="F347" t="s">
+        <v>305</v>
+      </c>
+      <c r="G347" t="s">
+        <v>317</v>
+      </c>
+      <c r="H347">
+        <v>500</v>
+      </c>
+      <c r="I347">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" s="2">
+        <v>45308.41597222222</v>
+      </c>
+      <c r="D348" t="s">
+        <v>283</v>
+      </c>
+      <c r="E348" t="s">
+        <v>303</v>
+      </c>
+      <c r="F348" t="s">
+        <v>309</v>
+      </c>
+      <c r="G348" t="s">
+        <v>318</v>
+      </c>
+      <c r="H348">
+        <v>600</v>
+      </c>
+      <c r="I348">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>8</v>
+      </c>
+      <c r="C349" s="2">
+        <v>45308.41597222222</v>
+      </c>
+      <c r="D349" t="s">
+        <v>284</v>
+      </c>
+      <c r="E349" t="s">
+        <v>303</v>
+      </c>
+      <c r="G349" t="s">
+        <v>8</v>
+      </c>
+      <c r="H349">
+        <v>600</v>
+      </c>
+      <c r="I349">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>13</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45308.41597222222</v>
+      </c>
+      <c r="D350" t="s">
+        <v>285</v>
+      </c>
+      <c r="E350" t="s">
+        <v>303</v>
+      </c>
+      <c r="F350" t="s">
+        <v>314</v>
+      </c>
+      <c r="G350" t="s">
+        <v>319</v>
+      </c>
+      <c r="H350">
+        <v>600</v>
+      </c>
+      <c r="I350">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>14</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45308.41597222222</v>
+      </c>
+      <c r="D351" t="s">
+        <v>286</v>
+      </c>
+      <c r="E351" t="s">
+        <v>303</v>
+      </c>
+      <c r="F351" t="s">
+        <v>311</v>
+      </c>
+      <c r="H351">
+        <v>500</v>
+      </c>
+      <c r="I351">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>15</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45308.41597222222</v>
+      </c>
+      <c r="D352" t="s">
+        <v>132</v>
+      </c>
+      <c r="E352" t="s">
+        <v>303</v>
+      </c>
+      <c r="F352" t="s">
+        <v>312</v>
+      </c>
+      <c r="H352">
+        <v>500</v>
+      </c>
+      <c r="I352">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>16</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45511.00048611111</v>
+      </c>
+      <c r="D353" t="s">
+        <v>122</v>
+      </c>
+      <c r="G353" t="s">
+        <v>320</v>
+      </c>
+      <c r="H353">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>10</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45511.40416666667</v>
+      </c>
+      <c r="D354" t="s">
+        <v>287</v>
+      </c>
+      <c r="E354" t="s">
+        <v>303</v>
+      </c>
+      <c r="F354" t="s">
+        <v>315</v>
+      </c>
+      <c r="G354" t="s">
+        <v>316</v>
+      </c>
+      <c r="H354">
+        <v>600</v>
+      </c>
+      <c r="I354">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45511.40416666667</v>
+      </c>
+      <c r="D355" t="s">
+        <v>288</v>
+      </c>
+      <c r="E355" t="s">
+        <v>303</v>
+      </c>
+      <c r="F355" t="s">
+        <v>305</v>
+      </c>
+      <c r="G355" t="s">
+        <v>317</v>
+      </c>
+      <c r="H355">
+        <v>600</v>
+      </c>
+      <c r="I355">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>12</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45511.40416666667</v>
+      </c>
+      <c r="D356" t="s">
+        <v>289</v>
+      </c>
+      <c r="E356" t="s">
+        <v>303</v>
+      </c>
+      <c r="F356" t="s">
+        <v>309</v>
+      </c>
+      <c r="G356" t="s">
+        <v>318</v>
+      </c>
+      <c r="H356">
+        <v>600</v>
+      </c>
+      <c r="I356">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45511.40416666667</v>
+      </c>
+      <c r="D357" t="s">
+        <v>290</v>
+      </c>
+      <c r="E357" t="s">
+        <v>303</v>
+      </c>
+      <c r="G357" t="s">
+        <v>8</v>
+      </c>
+      <c r="H357">
+        <v>600</v>
+      </c>
+      <c r="I357">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>13</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45511.40416666667</v>
+      </c>
+      <c r="D358" t="s">
+        <v>39</v>
+      </c>
+      <c r="E358" t="s">
+        <v>303</v>
+      </c>
+      <c r="F358" t="s">
+        <v>314</v>
+      </c>
+      <c r="G358" t="s">
+        <v>319</v>
+      </c>
+      <c r="H358">
+        <v>600</v>
+      </c>
+      <c r="I358">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>14</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45511.40416666667</v>
+      </c>
+      <c r="D359" t="s">
+        <v>291</v>
+      </c>
+      <c r="E359" t="s">
+        <v>303</v>
+      </c>
+      <c r="F359" t="s">
+        <v>311</v>
+      </c>
+      <c r="H359">
+        <v>600</v>
+      </c>
+      <c r="I359">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>15</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45511.40416666667</v>
+      </c>
+      <c r="D360" t="s">
+        <v>292</v>
+      </c>
+      <c r="E360" t="s">
+        <v>303</v>
+      </c>
+      <c r="F360" t="s">
+        <v>312</v>
+      </c>
+      <c r="H360">
+        <v>600</v>
+      </c>
+      <c r="I360">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>16</v>
+      </c>
+      <c r="C361" s="2">
+        <v>45558.00048611111</v>
+      </c>
+      <c r="D361" t="s">
+        <v>122</v>
+      </c>
+      <c r="G361" t="s">
+        <v>320</v>
+      </c>
+      <c r="H361">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>10</v>
+      </c>
+      <c r="C362" s="2">
+        <v>45558.41944444444</v>
+      </c>
+      <c r="D362" t="s">
+        <v>293</v>
+      </c>
+      <c r="E362" t="s">
+        <v>303</v>
+      </c>
+      <c r="F362" t="s">
+        <v>313</v>
+      </c>
+      <c r="G362" t="s">
+        <v>316</v>
+      </c>
+      <c r="H362">
+        <v>600</v>
+      </c>
+      <c r="I362">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>11</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45558.41944444444</v>
+      </c>
+      <c r="D363" t="s">
+        <v>35</v>
+      </c>
+      <c r="E363" t="s">
+        <v>303</v>
+      </c>
+      <c r="F363" t="s">
+        <v>305</v>
+      </c>
+      <c r="G363" t="s">
+        <v>317</v>
+      </c>
+      <c r="H363">
+        <v>600</v>
+      </c>
+      <c r="I363">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>12</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45558.41944444444</v>
+      </c>
+      <c r="D364" t="s">
+        <v>188</v>
+      </c>
+      <c r="E364" t="s">
+        <v>303</v>
+      </c>
+      <c r="F364" t="s">
+        <v>309</v>
+      </c>
+      <c r="G364" t="s">
+        <v>318</v>
+      </c>
+      <c r="H364">
+        <v>600</v>
+      </c>
+      <c r="I364">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45558.41944444444</v>
+      </c>
+      <c r="D365" t="s">
+        <v>294</v>
+      </c>
+      <c r="E365" t="s">
+        <v>303</v>
+      </c>
+      <c r="G365" t="s">
+        <v>8</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+      <c r="I365">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>13</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45558.41944444444</v>
+      </c>
+      <c r="D366" t="s">
+        <v>295</v>
+      </c>
+      <c r="E366" t="s">
+        <v>303</v>
+      </c>
+      <c r="F366" t="s">
+        <v>314</v>
+      </c>
+      <c r="G366" t="s">
+        <v>319</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+      <c r="I366">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>14</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45558.41944444444</v>
+      </c>
+      <c r="D367" t="s">
+        <v>296</v>
+      </c>
+      <c r="E367" t="s">
+        <v>303</v>
+      </c>
+      <c r="F367" t="s">
+        <v>311</v>
+      </c>
+      <c r="H367">
+        <v>600</v>
+      </c>
+      <c r="I367">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>15</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45558.41944444444</v>
+      </c>
+      <c r="D368" t="s">
+        <v>22</v>
+      </c>
+      <c r="E368" t="s">
+        <v>303</v>
+      </c>
+      <c r="F368" t="s">
+        <v>312</v>
+      </c>
+      <c r="H368">
+        <v>600</v>
+      </c>
+      <c r="I368">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>16</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45587.00048611111</v>
+      </c>
+      <c r="D369" t="s">
+        <v>145</v>
+      </c>
+      <c r="G369" t="s">
+        <v>320</v>
+      </c>
+      <c r="H369">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45587.41944444444</v>
+      </c>
+      <c r="D370" t="s">
+        <v>78</v>
+      </c>
+      <c r="E370" t="s">
+        <v>303</v>
+      </c>
+      <c r="F370" t="s">
+        <v>313</v>
+      </c>
+      <c r="G370" t="s">
+        <v>316</v>
+      </c>
+      <c r="H370">
+        <v>600</v>
+      </c>
+      <c r="I370">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45587.41944444444</v>
+      </c>
+      <c r="D371" t="s">
+        <v>297</v>
+      </c>
+      <c r="E371" t="s">
+        <v>303</v>
+      </c>
+      <c r="F371" t="s">
+        <v>305</v>
+      </c>
+      <c r="G371" t="s">
+        <v>317</v>
+      </c>
+      <c r="H371">
+        <v>600</v>
+      </c>
+      <c r="I371">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45587.41944444444</v>
+      </c>
+      <c r="D372" t="s">
+        <v>241</v>
+      </c>
+      <c r="E372" t="s">
+        <v>303</v>
+      </c>
+      <c r="F372" t="s">
+        <v>309</v>
+      </c>
+      <c r="G372" t="s">
+        <v>318</v>
+      </c>
+      <c r="H372">
+        <v>600</v>
+      </c>
+      <c r="I372">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>8</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45587.41944444444</v>
+      </c>
+      <c r="D373" t="s">
+        <v>159</v>
+      </c>
+      <c r="E373" t="s">
+        <v>303</v>
+      </c>
+      <c r="G373" t="s">
+        <v>8</v>
+      </c>
+      <c r="H373">
+        <v>600</v>
+      </c>
+      <c r="I373">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>13</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45587.41944444444</v>
+      </c>
+      <c r="D374" t="s">
+        <v>235</v>
+      </c>
+      <c r="E374" t="s">
+        <v>303</v>
+      </c>
+      <c r="F374" t="s">
+        <v>314</v>
+      </c>
+      <c r="G374" t="s">
+        <v>319</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+      <c r="I374">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>14</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45587.41944444444</v>
+      </c>
+      <c r="D375" t="s">
+        <v>298</v>
+      </c>
+      <c r="E375" t="s">
+        <v>303</v>
+      </c>
+      <c r="F375" t="s">
+        <v>311</v>
+      </c>
+      <c r="H375">
+        <v>600</v>
+      </c>
+      <c r="I375">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>15</v>
+      </c>
+      <c r="C376" s="2">
+        <v>45587.41944444444</v>
+      </c>
+      <c r="D376" t="s">
+        <v>299</v>
+      </c>
+      <c r="E376" t="s">
+        <v>303</v>
+      </c>
+      <c r="F376" t="s">
+        <v>312</v>
+      </c>
+      <c r="H376">
+        <v>600</v>
+      </c>
+      <c r="I376">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>16</v>
+      </c>
+      <c r="C377" s="2">
+        <v>45636.00048611111</v>
+      </c>
+      <c r="D377" t="s">
+        <v>300</v>
+      </c>
+      <c r="G377" t="s">
+        <v>320</v>
+      </c>
+      <c r="H377">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>10</v>
+      </c>
+      <c r="C378" s="2">
+        <v>45636.40694444445</v>
+      </c>
+      <c r="D378" t="s">
+        <v>111</v>
+      </c>
+      <c r="E378" t="s">
+        <v>303</v>
+      </c>
+      <c r="F378" t="s">
+        <v>313</v>
+      </c>
+      <c r="G378" t="s">
+        <v>316</v>
+      </c>
+      <c r="H378">
+        <v>600</v>
+      </c>
+      <c r="I378">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>11</v>
+      </c>
+      <c r="C379" s="2">
+        <v>45636.40694444445</v>
+      </c>
+      <c r="D379" t="s">
+        <v>198</v>
+      </c>
+      <c r="E379" t="s">
+        <v>303</v>
+      </c>
+      <c r="F379" t="s">
+        <v>305</v>
+      </c>
+      <c r="G379" t="s">
+        <v>317</v>
+      </c>
+      <c r="H379">
+        <v>600</v>
+      </c>
+      <c r="I379">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>12</v>
+      </c>
+      <c r="C380" s="2">
+        <v>45636.40694444445</v>
+      </c>
+      <c r="D380" t="s">
+        <v>91</v>
+      </c>
+      <c r="E380" t="s">
+        <v>303</v>
+      </c>
+      <c r="F380" t="s">
+        <v>309</v>
+      </c>
+      <c r="G380" t="s">
+        <v>318</v>
+      </c>
+      <c r="H380">
+        <v>600</v>
+      </c>
+      <c r="I380">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" s="2">
+        <v>45636.40694444445</v>
+      </c>
+      <c r="D381" t="s">
+        <v>301</v>
+      </c>
+      <c r="E381" t="s">
+        <v>303</v>
+      </c>
+      <c r="G381" t="s">
+        <v>8</v>
+      </c>
+      <c r="H381">
+        <v>600</v>
+      </c>
+      <c r="I381">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>13</v>
+      </c>
+      <c r="C382" s="2">
+        <v>45636.40694444445</v>
+      </c>
+      <c r="D382" t="s">
+        <v>235</v>
+      </c>
+      <c r="E382" t="s">
+        <v>303</v>
+      </c>
+      <c r="F382" t="s">
+        <v>314</v>
+      </c>
+      <c r="G382" t="s">
+        <v>319</v>
+      </c>
+      <c r="H382">
+        <v>600</v>
+      </c>
+      <c r="I382">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>14</v>
+      </c>
+      <c r="C383" s="2">
+        <v>45636.40694444445</v>
+      </c>
+      <c r="D383" t="s">
+        <v>126</v>
+      </c>
+      <c r="E383" t="s">
+        <v>303</v>
+      </c>
+      <c r="F383" t="s">
+        <v>311</v>
+      </c>
+      <c r="H383">
+        <v>600</v>
+      </c>
+      <c r="I383">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s">
+        <v>15</v>
+      </c>
+      <c r="C384" s="2">
+        <v>45636.40694444445</v>
+      </c>
+      <c r="D384" t="s">
+        <v>302</v>
+      </c>
+      <c r="E384" t="s">
+        <v>303</v>
+      </c>
+      <c r="F384" t="s">
+        <v>312</v>
+      </c>
+      <c r="H384">
+        <v>600</v>
+      </c>
+      <c r="I384">
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/Lakes/OmanukaLagoon_28ce64213c.xlsx
+++ b/data/Lakes/OmanukaLagoon_28ce64213c.xlsx
@@ -64,7 +64,7 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>0.0020</t>
